--- a/Lectures/Lecture 8/MachineShop.xlsx
+++ b/Lectures/Lecture 8/MachineShop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE262158-8A5D-7B4B-A83D-1BC4AEFA83C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CCB0F3-97C0-45F3-8CF3-2C4DEDA201DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="3040" windowWidth="23220" windowHeight="14440" xr2:uid="{671296CE-411D-CC41-8EFB-1A220F187F9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{671296CE-411D-CC41-8EFB-1A220F187F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$12:$B$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$D$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$D$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$D$8</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$D$8</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$D$8</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
@@ -32,16 +33,17 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$14</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">integer</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$F$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$F$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$F$8</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$F$8</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$F$8</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -53,12 +55,20 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -605,21 +615,21 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -638,8 +648,9 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -650,7 +661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -669,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -681,7 +692,7 @@
       </c>
       <c r="D7" s="6">
         <f>MMULT(B7:C7,B12:B13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>6</v>
@@ -691,10 +702,10 @@
       </c>
       <c r="G7" s="12">
         <f>F7-D7</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -706,7 +717,7 @@
       </c>
       <c r="D8" s="9">
         <f>MMULT(B8:C8,B12:B13)</f>
-        <v>39</v>
+        <v>39.999999999999993</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>6</v>
@@ -716,37 +727,37 @@
       </c>
       <c r="G8" s="13">
         <f t="shared" ref="G8" si="0">F8-D8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <f>MMULT(B5:C5,B12:B13)</f>
-        <v>1000</v>
+        <v>1055.5555555555554</v>
       </c>
     </row>
   </sheetData>
